--- a/Brain/Outsystems/Associate Reactive Developer/Practice tests/AssociateReactiveWebDeveloperQuestions/4/Answers.xlsx
+++ b/Brain/Outsystems/Associate Reactive Developer/Practice tests/AssociateReactiveWebDeveloperQuestions/4/Answers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Outsystems\Associate Reactive Developer\Practice tests\AssociateReactiveWebDeveloperQuestions\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A98D59-FD47-4F5F-93D8-63B8D2D3A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92ECB1C-F336-4737-9486-53F688BCC631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="2550" windowWidth="17460" windowHeight="11295" xr2:uid="{5B6B54A1-7CC1-4F9D-9E22-5850EE1A4F19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B6B54A1-7CC1-4F9D-9E22-5850EE1A4F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
@@ -37,9 +38,6 @@
   </si>
   <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>ddeos hieuer</t>
   </si>
 </sst>
 </file>
@@ -69,7 +67,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,13 +75,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +407,1149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1B664-25C6-4901-9CE4-0F2D364D7035}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="b">
+        <f>A1=B1</f>
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f>COUNTIF(C1:C93, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f t="shared" ref="C2:C65" si="0">A2=B2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C1:C93, TRUE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="b">
+        <f t="shared" ref="C66:C93" si="1">A66=B66</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A798C0-5E10-4204-947B-92E2A27979BD}">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A93" sqref="A1:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +1605,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -537,7 +1685,7 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -577,7 +1725,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -592,13 +1740,13 @@
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>3</v>
+      <c r="A39" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -622,7 +1770,7 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -632,12 +1780,12 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -667,7 +1815,7 @@
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>1</v>
       </c>
     </row>
@@ -682,7 +1830,7 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -717,7 +1865,7 @@
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -726,153 +1874,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>

--- a/Brain/Outsystems/Associate Reactive Developer/Practice tests/AssociateReactiveWebDeveloperQuestions/4/Answers.xlsx
+++ b/Brain/Outsystems/Associate Reactive Developer/Practice tests/AssociateReactiveWebDeveloperQuestions/4/Answers.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Outsystems\Associate Reactive Developer\Practice tests\AssociateReactiveWebDeveloperQuestions\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Outsystems\Associate Reactive Developer\Practice tests\AssociateReactiveWebDeveloperQuestions\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92ECB1C-F336-4737-9486-53F688BCC631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8574880-5DCC-4E6F-8EF1-952C48CB9550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B6B54A1-7CC1-4F9D-9E22-5850EE1A4F19}"/>
+    <workbookView xWindow="4545" yWindow="1110" windowWidth="19455" windowHeight="11295" activeTab="1" xr2:uid="{5B6B54A1-7CC1-4F9D-9E22-5850EE1A4F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -88,11 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,9 +121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +161,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -257,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1B664-25C6-4901-9CE4-0F2D364D7035}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +557,7 @@
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="b">
@@ -739,7 +749,7 @@
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" t="b">
@@ -871,7 +881,7 @@
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="b">
@@ -883,7 +893,7 @@
       <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" t="b">
@@ -979,7 +989,7 @@
       <c r="A47" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="b">
@@ -1087,7 +1097,7 @@
       <c r="A56" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" t="b">
@@ -1171,7 +1181,7 @@
       <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>0</v>
       </c>
       <c r="C63" t="b">
@@ -1183,7 +1193,7 @@
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64" t="b">
@@ -1243,7 +1253,7 @@
       <c r="A69" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="b">
@@ -1471,7 +1481,7 @@
       <c r="A88" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>1</v>
       </c>
       <c r="C88" t="b">
@@ -1495,7 +1505,7 @@
       <c r="A90" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>1</v>
       </c>
       <c r="C90" t="b">
@@ -1519,7 +1529,7 @@
       <c r="A92" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>3</v>
       </c>
       <c r="C92" t="b">
@@ -1548,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A798C0-5E10-4204-947B-92E2A27979BD}">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A93" sqref="A1:A93"/>
     </sheetView>
   </sheetViews>
@@ -2010,7 +2020,7 @@
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>3</v>
       </c>
     </row>
